--- a/Datos/Database by set/Set with text box/Xlsx sets/Summer of Magic (PSUM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Summer of Magic (PSUM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,70 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Faerie Conclave</t>
+          <t>('Faerie Conclave', ['Land', 'Faerie Conclave enters the battlefield tapped.', '{T}: Add {U}.', '{1}{U}: Faerie Conclave becomes a 2/1 blue Faerie creature with flying until end of turn. It’s still a land.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Faerie Conclave enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{T}: Add {U}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{1}{U}: Faerie Conclave becomes a 2/1 blue Faerie creature with flying until end of turn. It’s still a land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Treetop Village</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Treetop Village enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{T}: Add {G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{1}{G}: Treetop Village becomes a 3/3 green Ape creature with trample until end of turn. It’s still a land. (It can deal excess combat damage to the player or planeswalker it’s attacking.)</t>
+          <t>('Treetop Village', ['Land', 'Treetop Village enters the battlefield tapped.', '{T}: Add {G}.', '{1}{G}: Treetop Village becomes a 3/3 green Ape creature with trample until end of turn. It’s still a land. (It can deal excess combat damage to the player or planeswalker it’s attacking.)'])</t>
         </is>
       </c>
     </row>
